--- a/scalability_weak.xlsx
+++ b/scalability_weak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\HPC\gameoflife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF18CE-D35A-4815-8E82-9C0A5F8B19CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B14638-D3A0-445F-89BA-F6BBA53C52B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29100" windowHeight="20265" activeTab="3" xr2:uid="{09C23D42-37AD-4371-83C4-E2D9C1F0731D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="20925" xr2:uid="{09C23D42-37AD-4371-83C4-E2D9C1F0731D}"/>
   </bookViews>
   <sheets>
     <sheet name="weak" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="pivot calc" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">weak!$A$1:$M$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">weak!$A$1:$M$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="50">
   <si>
     <t>action</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Sum of Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_weak_epyc_job_12829.out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_weak_epyc_epyc007_2023-06-15_20-44-05.csv </t>
   </si>
 </sst>
 </file>
@@ -34489,8 +34495,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70168E29-AA9E-4F17-B09D-4CF4B1F51A54}" name="TableOMP" displayName="TableOMP" ref="A1:S163" totalsRowShown="0">
-  <autoFilter ref="A1:S163" xr:uid="{70168E29-AA9E-4F17-B09D-4CF4B1F51A54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70168E29-AA9E-4F17-B09D-4CF4B1F51A54}" name="TableOMP" displayName="TableOMP" ref="A1:S198" totalsRowShown="0">
+  <autoFilter ref="A1:S198" xr:uid="{70168E29-AA9E-4F17-B09D-4CF4B1F51A54}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C65E14EC-216C-4223-8D59-B7FA32155998}" name="action"/>
     <tableColumn id="2" xr3:uid="{C68AA4F1-E41B-44F3-B896-477E0490398B}" name="world_size"/>
@@ -34841,10 +34847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0FCF52-D2E7-4173-89F3-152A3E21431F}">
-  <dimension ref="A1:AA163"/>
+  <dimension ref="A1:AA198"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="L199" sqref="L199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45652,6 +45658,2316 @@
         <v>#N/A</v>
       </c>
       <c r="S163" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>4000</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164">
+        <v>100000</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>30.648119999999999</v>
+      </c>
+      <c r="H164">
+        <v>0.19680800000000001</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="9" t="str">
+        <f>MID(M164,23,1)</f>
+        <v>7</v>
+      </c>
+      <c r="L164" t="s">
+        <v>48</v>
+      </c>
+      <c r="M164" t="s">
+        <v>49</v>
+      </c>
+      <c r="N164" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 4000 100 100000 1 1</v>
+      </c>
+      <c r="O164" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P164" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q164" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R164" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S164" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165">
+        <v>5657</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165">
+        <v>100000</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>30.016511000000001</v>
+      </c>
+      <c r="H165">
+        <v>0.14371100000000001</v>
+      </c>
+      <c r="I165">
+        <v>9.4766000000000003E-2</v>
+      </c>
+      <c r="J165">
+        <v>9.4766000000000003E-2</v>
+      </c>
+      <c r="K165" s="9" t="str">
+        <f t="shared" ref="K165:K198" si="5">MID(M165,23,1)</f>
+        <v>7</v>
+      </c>
+      <c r="L165" t="s">
+        <v>48</v>
+      </c>
+      <c r="M165" t="s">
+        <v>49</v>
+      </c>
+      <c r="N165" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 5657 100 100000 1 2</v>
+      </c>
+      <c r="O165" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P165" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q165" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R165" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S165" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>8000</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+      <c r="D166">
+        <v>100000</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>30.021874</v>
+      </c>
+      <c r="H166">
+        <v>0.18020600000000001</v>
+      </c>
+      <c r="I166">
+        <v>0.27113399999999999</v>
+      </c>
+      <c r="J166">
+        <v>9.0378E-2</v>
+      </c>
+      <c r="K166" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L166" t="s">
+        <v>48</v>
+      </c>
+      <c r="M166" t="s">
+        <v>49</v>
+      </c>
+      <c r="N166" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 8000 100 100000 1 4</v>
+      </c>
+      <c r="O166" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P166" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q166" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R166" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S166" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167">
+        <v>11314</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167">
+        <v>100000</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>30.249732000000002</v>
+      </c>
+      <c r="H167">
+        <v>0.30851699999999999</v>
+      </c>
+      <c r="I167">
+        <v>1.206561</v>
+      </c>
+      <c r="J167">
+        <v>0.17236599999999999</v>
+      </c>
+      <c r="K167" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L167" t="s">
+        <v>48</v>
+      </c>
+      <c r="M167" t="s">
+        <v>49</v>
+      </c>
+      <c r="N167" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 11314 100 100000 1 8</v>
+      </c>
+      <c r="O167" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P167" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q167" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R167" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S167" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>16000</v>
+      </c>
+      <c r="C168">
+        <v>100</v>
+      </c>
+      <c r="D168">
+        <v>100000</v>
+      </c>
+      <c r="E168">
+        <v>16</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>30.213470000000001</v>
+      </c>
+      <c r="H168">
+        <v>0.46817700000000001</v>
+      </c>
+      <c r="I168">
+        <v>3.4734409999999998</v>
+      </c>
+      <c r="J168">
+        <v>0.23156299999999999</v>
+      </c>
+      <c r="K168" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L168" t="s">
+        <v>48</v>
+      </c>
+      <c r="M168" t="s">
+        <v>49</v>
+      </c>
+      <c r="N168" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 16000 100 100000 1 16</v>
+      </c>
+      <c r="O168" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P168" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q168" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R168" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S168" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>22627</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169">
+        <v>100000</v>
+      </c>
+      <c r="E169">
+        <v>32</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>30.114887</v>
+      </c>
+      <c r="H169">
+        <v>0.79843200000000003</v>
+      </c>
+      <c r="I169">
+        <v>10.301678000000001</v>
+      </c>
+      <c r="J169">
+        <v>0.332312</v>
+      </c>
+      <c r="K169" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L169" t="s">
+        <v>48</v>
+      </c>
+      <c r="M169" t="s">
+        <v>49</v>
+      </c>
+      <c r="N169" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 22627 100 100000 1 32</v>
+      </c>
+      <c r="O169" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P169" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q169" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R169" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S169" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>32000</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+      <c r="D170">
+        <v>100000</v>
+      </c>
+      <c r="E170">
+        <v>64</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>33.073889000000001</v>
+      </c>
+      <c r="H170">
+        <v>1.5390950000000001</v>
+      </c>
+      <c r="I170">
+        <v>36.138190000000002</v>
+      </c>
+      <c r="J170">
+        <v>0.57362199999999997</v>
+      </c>
+      <c r="K170" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L170" t="s">
+        <v>48</v>
+      </c>
+      <c r="M170" t="s">
+        <v>49</v>
+      </c>
+      <c r="N170" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 32000 100 100000 1 64</v>
+      </c>
+      <c r="O170" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P170" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q170" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R170" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S170" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>4000</v>
+      </c>
+      <c r="C171">
+        <v>100</v>
+      </c>
+      <c r="D171">
+        <v>100000</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>30.485427000000001</v>
+      </c>
+      <c r="H171">
+        <v>6.3893000000000005E-2</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L171" t="s">
+        <v>48</v>
+      </c>
+      <c r="M171" t="s">
+        <v>49</v>
+      </c>
+      <c r="N171" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 4000 100 100000 1 1</v>
+      </c>
+      <c r="O171" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P171" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q171" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R171" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S171" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>5657</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+      <c r="D172">
+        <v>100000</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>30.115641</v>
+      </c>
+      <c r="H172">
+        <v>0.246865</v>
+      </c>
+      <c r="I172">
+        <v>0.16778599999999999</v>
+      </c>
+      <c r="J172">
+        <v>0.16778599999999999</v>
+      </c>
+      <c r="K172" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L172" t="s">
+        <v>48</v>
+      </c>
+      <c r="M172" t="s">
+        <v>49</v>
+      </c>
+      <c r="N172" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 5657 100 100000 1 2</v>
+      </c>
+      <c r="O172" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P172" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q172" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R172" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S172" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173">
+        <v>8000</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173">
+        <v>100000</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>30.120332000000001</v>
+      </c>
+      <c r="H173">
+        <v>0.22442300000000001</v>
+      </c>
+      <c r="I173">
+        <v>0.459096</v>
+      </c>
+      <c r="J173">
+        <v>0.153032</v>
+      </c>
+      <c r="K173" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>48</v>
+      </c>
+      <c r="M173" t="s">
+        <v>49</v>
+      </c>
+      <c r="N173" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 8000 100 100000 1 4</v>
+      </c>
+      <c r="O173" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P173" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q173" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R173" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S173" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>11314</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174">
+        <v>100000</v>
+      </c>
+      <c r="E174">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>30.099221</v>
+      </c>
+      <c r="H174">
+        <v>0.25883699999999998</v>
+      </c>
+      <c r="I174">
+        <v>0.86246800000000001</v>
+      </c>
+      <c r="J174">
+        <v>0.12321</v>
+      </c>
+      <c r="K174" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L174" t="s">
+        <v>48</v>
+      </c>
+      <c r="M174" t="s">
+        <v>49</v>
+      </c>
+      <c r="N174" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 11314 100 100000 1 8</v>
+      </c>
+      <c r="O174" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P174" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q174" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R174" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S174" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175">
+        <v>16000</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>100000</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>30.549244999999999</v>
+      </c>
+      <c r="H175">
+        <v>0.43166900000000002</v>
+      </c>
+      <c r="I175">
+        <v>2.9310139999999998</v>
+      </c>
+      <c r="J175">
+        <v>0.19540099999999999</v>
+      </c>
+      <c r="K175" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L175" t="s">
+        <v>48</v>
+      </c>
+      <c r="M175" t="s">
+        <v>49</v>
+      </c>
+      <c r="N175" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 16000 100 100000 1 16</v>
+      </c>
+      <c r="O175" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P175" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q175" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R175" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S175" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>22627</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176">
+        <v>100000</v>
+      </c>
+      <c r="E176">
+        <v>32</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>30.405487000000001</v>
+      </c>
+      <c r="H176">
+        <v>0.76443899999999998</v>
+      </c>
+      <c r="I176">
+        <v>8.9150679999999998</v>
+      </c>
+      <c r="J176">
+        <v>0.28758299999999998</v>
+      </c>
+      <c r="K176" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L176" t="s">
+        <v>48</v>
+      </c>
+      <c r="M176" t="s">
+        <v>49</v>
+      </c>
+      <c r="N176" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 22627 100 100000 1 32</v>
+      </c>
+      <c r="O176" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P176" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q176" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R176" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S176" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>32000</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+      <c r="D177">
+        <v>100000</v>
+      </c>
+      <c r="E177">
+        <v>64</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>34.073410000000003</v>
+      </c>
+      <c r="H177">
+        <v>1.48746</v>
+      </c>
+      <c r="I177">
+        <v>36.024974</v>
+      </c>
+      <c r="J177">
+        <v>0.57182500000000003</v>
+      </c>
+      <c r="K177" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L177" t="s">
+        <v>48</v>
+      </c>
+      <c r="M177" t="s">
+        <v>49</v>
+      </c>
+      <c r="N177" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 32000 100 100000 1 64</v>
+      </c>
+      <c r="O177" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P177" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q177" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R177" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S177" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178">
+        <v>4000</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178">
+        <v>100000</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>30.482914999999998</v>
+      </c>
+      <c r="H178">
+        <v>6.4491000000000007E-2</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L178" t="s">
+        <v>48</v>
+      </c>
+      <c r="M178" t="s">
+        <v>49</v>
+      </c>
+      <c r="N178" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 4000 100 100000 1 1</v>
+      </c>
+      <c r="O178" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P178" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q178" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R178" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S178" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179">
+        <v>5657</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>100000</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>30.033856</v>
+      </c>
+      <c r="H179">
+        <v>0.18693399999999999</v>
+      </c>
+      <c r="I179">
+        <v>0.13850499999999999</v>
+      </c>
+      <c r="J179">
+        <v>0.13850499999999999</v>
+      </c>
+      <c r="K179" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L179" t="s">
+        <v>48</v>
+      </c>
+      <c r="M179" t="s">
+        <v>49</v>
+      </c>
+      <c r="N179" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 5657 100 100000 1 2</v>
+      </c>
+      <c r="O179" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P179" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q179" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R179" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S179" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180">
+        <v>8000</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+      <c r="D180">
+        <v>100000</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>30.106155999999999</v>
+      </c>
+      <c r="H180">
+        <v>0.15120600000000001</v>
+      </c>
+      <c r="I180">
+        <v>0.23120199999999999</v>
+      </c>
+      <c r="J180">
+        <v>7.7066999999999997E-2</v>
+      </c>
+      <c r="K180" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L180" t="s">
+        <v>48</v>
+      </c>
+      <c r="M180" t="s">
+        <v>49</v>
+      </c>
+      <c r="N180" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 8000 100 100000 1 4</v>
+      </c>
+      <c r="O180" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P180" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q180" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R180" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S180" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <v>11314</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>100000</v>
+      </c>
+      <c r="E181">
+        <v>8</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>30.083037999999998</v>
+      </c>
+      <c r="H181">
+        <v>0.24102899999999999</v>
+      </c>
+      <c r="I181">
+        <v>0.76532800000000001</v>
+      </c>
+      <c r="J181">
+        <v>0.109333</v>
+      </c>
+      <c r="K181" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L181" t="s">
+        <v>48</v>
+      </c>
+      <c r="M181" t="s">
+        <v>49</v>
+      </c>
+      <c r="N181" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 11314 100 100000 1 8</v>
+      </c>
+      <c r="O181" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P181" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q181" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R181" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S181" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182">
+        <v>16000</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>100000</v>
+      </c>
+      <c r="E182">
+        <v>16</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>30.946756000000001</v>
+      </c>
+      <c r="H182">
+        <v>0.42145700000000003</v>
+      </c>
+      <c r="I182">
+        <v>2.6647110000000001</v>
+      </c>
+      <c r="J182">
+        <v>0.177647</v>
+      </c>
+      <c r="K182" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L182" t="s">
+        <v>48</v>
+      </c>
+      <c r="M182" t="s">
+        <v>49</v>
+      </c>
+      <c r="N182" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 16000 100 100000 1 16</v>
+      </c>
+      <c r="O182" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P182" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q182" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R182" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S182" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183">
+        <v>22627</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+      <c r="D183">
+        <v>100000</v>
+      </c>
+      <c r="E183">
+        <v>32</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>30.427979000000001</v>
+      </c>
+      <c r="H183">
+        <v>0.75830900000000001</v>
+      </c>
+      <c r="I183">
+        <v>9.1051870000000008</v>
+      </c>
+      <c r="J183">
+        <v>0.29371599999999998</v>
+      </c>
+      <c r="K183" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L183" t="s">
+        <v>48</v>
+      </c>
+      <c r="M183" t="s">
+        <v>49</v>
+      </c>
+      <c r="N183" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 22627 100 100000 1 32</v>
+      </c>
+      <c r="O183" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P183" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q183" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R183" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S183" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184">
+        <v>32000</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+      <c r="D184">
+        <v>100000</v>
+      </c>
+      <c r="E184">
+        <v>64</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>34.226179999999999</v>
+      </c>
+      <c r="H184">
+        <v>1.557674</v>
+      </c>
+      <c r="I184">
+        <v>40.767966999999999</v>
+      </c>
+      <c r="J184">
+        <v>0.64711099999999999</v>
+      </c>
+      <c r="K184" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L184" t="s">
+        <v>48</v>
+      </c>
+      <c r="M184" t="s">
+        <v>49</v>
+      </c>
+      <c r="N184" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 32000 100 100000 1 64</v>
+      </c>
+      <c r="O184" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P184" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q184" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R184" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S184" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>4000</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+      <c r="D185">
+        <v>100000</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>30.490608000000002</v>
+      </c>
+      <c r="H185">
+        <v>6.4491999999999994E-2</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M185" t="s">
+        <v>49</v>
+      </c>
+      <c r="N185" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 4000 100 100000 1 1</v>
+      </c>
+      <c r="O185" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P185" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q185" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R185" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S185" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186">
+        <v>5657</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+      <c r="D186">
+        <v>100000</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>29.964981999999999</v>
+      </c>
+      <c r="H186">
+        <v>0.120627</v>
+      </c>
+      <c r="I186">
+        <v>7.4357999999999994E-2</v>
+      </c>
+      <c r="J186">
+        <v>7.4357999999999994E-2</v>
+      </c>
+      <c r="K186" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L186" t="s">
+        <v>48</v>
+      </c>
+      <c r="M186" t="s">
+        <v>49</v>
+      </c>
+      <c r="N186" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 5657 100 100000 1 2</v>
+      </c>
+      <c r="O186" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P186" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q186" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R186" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S186" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187">
+        <v>8000</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>100000</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>30.013812999999999</v>
+      </c>
+      <c r="H187">
+        <v>0.150398</v>
+      </c>
+      <c r="I187">
+        <v>0.228352</v>
+      </c>
+      <c r="J187">
+        <v>7.6117000000000004E-2</v>
+      </c>
+      <c r="K187" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L187" t="s">
+        <v>48</v>
+      </c>
+      <c r="M187" t="s">
+        <v>49</v>
+      </c>
+      <c r="N187" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 8000 100 100000 1 4</v>
+      </c>
+      <c r="O187" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P187" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q187" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R187" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S187" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188">
+        <v>11314</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+      <c r="D188">
+        <v>100000</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>30.141233</v>
+      </c>
+      <c r="H188">
+        <v>0.24340800000000001</v>
+      </c>
+      <c r="I188">
+        <v>0.79739099999999996</v>
+      </c>
+      <c r="J188">
+        <v>0.113913</v>
+      </c>
+      <c r="K188" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L188" t="s">
+        <v>48</v>
+      </c>
+      <c r="M188" t="s">
+        <v>49</v>
+      </c>
+      <c r="N188" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 11314 100 100000 1 8</v>
+      </c>
+      <c r="O188" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P188" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q188" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R188" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S188" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189">
+        <v>16000</v>
+      </c>
+      <c r="C189">
+        <v>100</v>
+      </c>
+      <c r="D189">
+        <v>100000</v>
+      </c>
+      <c r="E189">
+        <v>16</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>30.350286000000001</v>
+      </c>
+      <c r="H189">
+        <v>0.47881600000000002</v>
+      </c>
+      <c r="I189">
+        <v>3.5364529999999998</v>
+      </c>
+      <c r="J189">
+        <v>0.235764</v>
+      </c>
+      <c r="K189" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L189" t="s">
+        <v>48</v>
+      </c>
+      <c r="M189" t="s">
+        <v>49</v>
+      </c>
+      <c r="N189" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 16000 100 100000 1 16</v>
+      </c>
+      <c r="O189" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P189" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q189" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R189" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S189" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190">
+        <v>22627</v>
+      </c>
+      <c r="C190">
+        <v>100</v>
+      </c>
+      <c r="D190">
+        <v>100000</v>
+      </c>
+      <c r="E190">
+        <v>32</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>30.723590999999999</v>
+      </c>
+      <c r="H190">
+        <v>0.77511300000000005</v>
+      </c>
+      <c r="I190">
+        <v>9.7765190000000004</v>
+      </c>
+      <c r="J190">
+        <v>0.31537199999999999</v>
+      </c>
+      <c r="K190" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L190" t="s">
+        <v>48</v>
+      </c>
+      <c r="M190" t="s">
+        <v>49</v>
+      </c>
+      <c r="N190" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 22627 100 100000 1 32</v>
+      </c>
+      <c r="O190" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P190" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q190" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R190" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S190" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191">
+        <v>32000</v>
+      </c>
+      <c r="C191">
+        <v>100</v>
+      </c>
+      <c r="D191">
+        <v>100000</v>
+      </c>
+      <c r="E191">
+        <v>64</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>34.124831999999998</v>
+      </c>
+      <c r="H191">
+        <v>1.5172890000000001</v>
+      </c>
+      <c r="I191">
+        <v>38.012258000000003</v>
+      </c>
+      <c r="J191">
+        <v>0.60336900000000004</v>
+      </c>
+      <c r="K191" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L191" t="s">
+        <v>48</v>
+      </c>
+      <c r="M191" t="s">
+        <v>49</v>
+      </c>
+      <c r="N191" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 32000 100 100000 1 64</v>
+      </c>
+      <c r="O191" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P191" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q191" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R191" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S191" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192">
+        <v>4000</v>
+      </c>
+      <c r="C192">
+        <v>100</v>
+      </c>
+      <c r="D192">
+        <v>100000</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>30.502358999999998</v>
+      </c>
+      <c r="H192">
+        <v>6.3448000000000004E-2</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L192" t="s">
+        <v>48</v>
+      </c>
+      <c r="M192" t="s">
+        <v>49</v>
+      </c>
+      <c r="N192" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 4000 100 100000 1 1</v>
+      </c>
+      <c r="O192" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P192" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q192" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R192" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S192" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193">
+        <v>5657</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>100000</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>29.953956999999999</v>
+      </c>
+      <c r="H193">
+        <v>0.102871</v>
+      </c>
+      <c r="I193">
+        <v>5.6329999999999998E-2</v>
+      </c>
+      <c r="J193">
+        <v>5.6329999999999998E-2</v>
+      </c>
+      <c r="K193" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L193" t="s">
+        <v>48</v>
+      </c>
+      <c r="M193" t="s">
+        <v>49</v>
+      </c>
+      <c r="N193" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 5657 100 100000 1 2</v>
+      </c>
+      <c r="O193" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P193" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q193" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R193" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S193" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194">
+        <v>8000</v>
+      </c>
+      <c r="C194">
+        <v>100</v>
+      </c>
+      <c r="D194">
+        <v>100000</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>29.988299000000001</v>
+      </c>
+      <c r="H194">
+        <v>0.143789</v>
+      </c>
+      <c r="I194">
+        <v>0.210256</v>
+      </c>
+      <c r="J194">
+        <v>7.0084999999999995E-2</v>
+      </c>
+      <c r="K194" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L194" t="s">
+        <v>48</v>
+      </c>
+      <c r="M194" t="s">
+        <v>49</v>
+      </c>
+      <c r="N194" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 8000 100 100000 1 4</v>
+      </c>
+      <c r="O194" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P194" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q194" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R194" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S194" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195">
+        <v>11314</v>
+      </c>
+      <c r="C195">
+        <v>100</v>
+      </c>
+      <c r="D195">
+        <v>100000</v>
+      </c>
+      <c r="E195">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>30.080573000000001</v>
+      </c>
+      <c r="H195">
+        <v>0.25227899999999998</v>
+      </c>
+      <c r="I195">
+        <v>0.87783900000000004</v>
+      </c>
+      <c r="J195">
+        <v>0.12540599999999999</v>
+      </c>
+      <c r="K195" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L195" t="s">
+        <v>48</v>
+      </c>
+      <c r="M195" t="s">
+        <v>49</v>
+      </c>
+      <c r="N195" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 11314 100 100000 1 8</v>
+      </c>
+      <c r="O195" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P195" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q195" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R195" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S195" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196">
+        <v>16000</v>
+      </c>
+      <c r="C196">
+        <v>100</v>
+      </c>
+      <c r="D196">
+        <v>100000</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>30.560416</v>
+      </c>
+      <c r="H196">
+        <v>0.43234699999999998</v>
+      </c>
+      <c r="I196">
+        <v>2.820538</v>
+      </c>
+      <c r="J196">
+        <v>0.18803600000000001</v>
+      </c>
+      <c r="K196" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L196" t="s">
+        <v>48</v>
+      </c>
+      <c r="M196" t="s">
+        <v>49</v>
+      </c>
+      <c r="N196" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 16000 100 100000 1 16</v>
+      </c>
+      <c r="O196" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P196" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q196" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R196" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S196" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>22627</v>
+      </c>
+      <c r="C197">
+        <v>100</v>
+      </c>
+      <c r="D197">
+        <v>100000</v>
+      </c>
+      <c r="E197">
+        <v>32</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>30.451661000000001</v>
+      </c>
+      <c r="H197">
+        <v>0.78208100000000003</v>
+      </c>
+      <c r="I197">
+        <v>9.8475289999999998</v>
+      </c>
+      <c r="J197">
+        <v>0.317662</v>
+      </c>
+      <c r="K197" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L197" t="s">
+        <v>48</v>
+      </c>
+      <c r="M197" t="s">
+        <v>49</v>
+      </c>
+      <c r="N197" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 22627 100 100000 1 32</v>
+      </c>
+      <c r="O197" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P197" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q197" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R197" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S197" s="9" t="e">
+        <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>32000</v>
+      </c>
+      <c r="C198">
+        <v>100</v>
+      </c>
+      <c r="D198">
+        <v>100000</v>
+      </c>
+      <c r="E198">
+        <v>64</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>34.001054000000003</v>
+      </c>
+      <c r="H198">
+        <v>1.499385</v>
+      </c>
+      <c r="I198">
+        <v>37.183621000000002</v>
+      </c>
+      <c r="J198">
+        <v>0.59021599999999996</v>
+      </c>
+      <c r="K198" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L198" t="s">
+        <v>48</v>
+      </c>
+      <c r="M198" t="s">
+        <v>49</v>
+      </c>
+      <c r="N198" s="9" t="str">
+        <f>TableOMP[[#This Row],[action]]&amp; " " &amp; TableOMP[[#This Row],[world_size]] &amp; " " &amp;TableOMP[[#This Row],[number_of_steps]]&amp; " " &amp;TableOMP[[#This Row],[number_of_steps_between_file_dumps]] &amp; " " &amp; TableOMP[[#This Row],[omp_get_max_threads]] &amp; " " &amp;TableOMP[[#This Row],[mpi_size]]</f>
+        <v>e1 32000 100 100000 1 64</v>
+      </c>
+      <c r="O198" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P198" s="9" t="e">
+        <f>VLOOKUP(TableOMP[[#This Row],[Label]],TableAvg[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q198" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]-$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R198" s="9" t="e">
+        <f>TableOMP[[#This Row],[Avg]]+$U$2*TableOMP[[#This Row],[StdDev]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S198" s="9" t="e">
         <f>IF(AND(TableOMP[[#This Row],[total_time]]&gt;=TableOMP[[#This Row],[Low]], TableOMP[[#This Row],[total_time]]&lt;=TableOMP[[#This Row],[High]]),1,0)</f>
         <v>#N/A</v>
       </c>
@@ -46313,7 +48629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A59B5D-11B6-44B0-B743-962FAE9CD66F}">
   <dimension ref="A2:BF649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
